--- a/hasil/2024_01_penyerahan_salinan.xlsx
+++ b/hasil/2024_01_penyerahan_salinan.xlsx
@@ -382,7 +382,7 @@
     <t>Mengetahui</t>
   </si>
   <si>
-    <t>Ternate , 15 Agustus 2024</t>
+    <t>Ternate , 26 Agustus 2024</t>
   </si>
   <si>
     <t>Ketua Pengadilan Agama Ternate ,</t>
